--- a/Evaluation/eval003/sub0403/Classifcation Report.xlsx
+++ b/Evaluation/eval003/sub0403/Classifcation Report.xlsx
@@ -400,13 +400,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9320388349514563</v>
+        <v>0.95</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9504950495049505</v>
+        <v>0.9405940594059405</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9411764705882353</v>
+        <v>0.9452736318407959</v>
       </c>
       <c r="E2" t="n">
         <v>101</v>
@@ -419,13 +419,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9494949494949495</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9306930693069307</v>
+        <v>0.9504950495049505</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9400000000000001</v>
+        <v>0.9458128078817734</v>
       </c>
       <c r="E3" t="n">
         <v>101</v>
@@ -438,16 +438,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9405940594059405</v>
+        <v>0.9455445544554455</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9405940594059405</v>
+        <v>0.9455445544554455</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9405940594059405</v>
+        <v>0.9455445544554455</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9405940594059405</v>
+        <v>0.9455445544554455</v>
       </c>
     </row>
     <row r="5">
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9407668922232029</v>
+        <v>0.9455882352941176</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9405940594059405</v>
+        <v>0.9455445544554455</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9405882352941177</v>
+        <v>0.9455432198612846</v>
       </c>
       <c r="E5" t="n">
         <v>202</v>
@@ -476,13 +476,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9407668922232029</v>
+        <v>0.9455882352941176</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9405940594059405</v>
+        <v>0.9455445544554455</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9405882352941176</v>
+        <v>0.9455432198612846</v>
       </c>
       <c r="E6" t="n">
         <v>202</v>
